--- a/Planning_document.xlsx
+++ b/Planning_document.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonard/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B852FAF-37CC-F946-900C-208DC4F32247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Components</t>
   </si>
@@ -58,9 +67,6 @@
     <t>Melvin</t>
   </si>
   <si>
-    <t>GeoSpatial Graphs</t>
-  </si>
-  <si>
     <t>Feature engineering</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
   </si>
   <si>
     <t>Presentation</t>
-  </si>
-  <si>
-    <t>EDA, Modeling, CBA</t>
   </si>
   <si>
     <t>Leonard, Melvin, Pallavi</t>
@@ -94,32 +97,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-mmm-yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF24292E"/>
       <name val="Arial"/>
     </font>
@@ -129,7 +139,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -151,7 +161,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -165,67 +181,51 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -415,26 +415,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.29"/>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="3" max="3" width="21.29"/>
-    <col customWidth="1" min="7" max="7" width="14.0"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -468,10 +473,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>44015.0</v>
+        <v>44015</v>
       </c>
       <c r="E2" s="5">
-        <v>44021.0</v>
+        <v>44021</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
@@ -480,7 +485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -489,10 +494,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="5">
-        <v>44015.0</v>
+        <v>44015</v>
       </c>
       <c r="E3" s="5">
-        <v>44021.0</v>
+        <v>44021</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
@@ -501,7 +506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -510,10 +515,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="5">
-        <v>44015.0</v>
+        <v>44015</v>
       </c>
       <c r="E4" s="5">
-        <v>44021.0</v>
+        <v>44021</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>10</v>
@@ -522,108 +527,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="5">
-        <v>44022.0</v>
+        <v>44022</v>
       </c>
       <c r="E6" s="5">
-        <v>44022.0</v>
+        <v>44022</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="5">
-        <v>44022.0</v>
+        <v>44022</v>
       </c>
       <c r="E7" s="5">
-        <v>44023.0</v>
+        <v>44023</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5">
-        <v>44022.0</v>
+        <v>44022</v>
       </c>
       <c r="E8" s="5">
-        <v>44023.0</v>
+        <v>44023</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="5">
-        <v>44023.0</v>
+        <v>44023</v>
       </c>
       <c r="E9" s="5">
-        <v>44024.0</v>
+        <v>44024</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planning_document.xlsx
+++ b/Planning_document.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonard/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Desktop\DSI Course Notes\materials_copy\projects\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B852FAF-37CC-F946-900C-208DC4F32247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
@@ -421,25 +420,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -485,7 +484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -506,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -527,7 +526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="4"/>
@@ -536,7 +535,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -557,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -580,7 +579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
@@ -601,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
